--- a/data/trans_orig/P42A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P42A-Edad-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>22088</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14278</v>
+        <v>14826</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30319</v>
+        <v>31120</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2592836805094825</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1676077590883414</v>
+        <v>0.1740458088066929</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3559065298296208</v>
+        <v>0.3653177476518696</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>14079</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8274</v>
+        <v>8543</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22074</v>
+        <v>21436</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1652774206277091</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09712748498385279</v>
+        <v>0.1002865939936693</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2591277599233617</v>
+        <v>0.2516399607276296</v>
       </c>
     </row>
     <row r="6">
@@ -682,19 +682,19 @@
         <v>21016</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13255</v>
+        <v>13664</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29257</v>
+        <v>29360</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2466996076508988</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1556013227268785</v>
+        <v>0.160398858377437</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.343441276973552</v>
+        <v>0.3446553020678035</v>
       </c>
     </row>
     <row r="7">
@@ -711,19 +711,19 @@
         <v>11930</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6597</v>
+        <v>6695</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18570</v>
+        <v>18471</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1400420444844054</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07743997421041907</v>
+        <v>0.07859371726290786</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2179898262665973</v>
+        <v>0.2168266113543126</v>
       </c>
     </row>
     <row r="8">
@@ -740,19 +740,19 @@
         <v>16075</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9704</v>
+        <v>10055</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23452</v>
+        <v>24363</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1886972467275042</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1139181699223621</v>
+        <v>0.1180295996626415</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2752961025836376</v>
+        <v>0.2859991494680719</v>
       </c>
     </row>
     <row r="9">
@@ -802,19 +802,19 @@
         <v>41387</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30517</v>
+        <v>30204</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54123</v>
+        <v>55280</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1940212052638156</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1430608884800021</v>
+        <v>0.1415932744086564</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2537277470110206</v>
+        <v>0.2591488151405536</v>
       </c>
     </row>
     <row r="11">
@@ -831,19 +831,19 @@
         <v>42492</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>31120</v>
+        <v>30550</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>54919</v>
+        <v>55361</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1992027442655941</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.145890103756426</v>
+        <v>0.1432160213753716</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2574592989771338</v>
+        <v>0.2595290386101459</v>
       </c>
     </row>
     <row r="12">
@@ -860,19 +860,19 @@
         <v>56520</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>44224</v>
+        <v>43890</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>71716</v>
+        <v>70499</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2649658734246044</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2073193995161376</v>
+        <v>0.205756224158403</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3362017997877356</v>
+        <v>0.3304989873431685</v>
       </c>
     </row>
     <row r="13">
@@ -889,19 +889,19 @@
         <v>43563</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32198</v>
+        <v>32256</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56803</v>
+        <v>56715</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2042230713165019</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1509433907304891</v>
+        <v>0.1512139785566298</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2662894714241343</v>
+        <v>0.2658783369233587</v>
       </c>
     </row>
     <row r="14">
@@ -918,19 +918,19 @@
         <v>29349</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19990</v>
+        <v>20690</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>40340</v>
+        <v>39817</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.137587105729484</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09371373357727723</v>
+        <v>0.09699386611340403</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1891128421321816</v>
+        <v>0.186659126811996</v>
       </c>
     </row>
     <row r="15">
@@ -980,19 +980,19 @@
         <v>59253</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>46876</v>
+        <v>47441</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>75155</v>
+        <v>73935</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2192476446420578</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1734503944366814</v>
+        <v>0.1755414579683474</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2780905055621977</v>
+        <v>0.2735765229998763</v>
       </c>
     </row>
     <row r="17">
@@ -1009,19 +1009,19 @@
         <v>52063</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>40052</v>
+        <v>40733</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>65765</v>
+        <v>68355</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.192644548452273</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.148201083067325</v>
+        <v>0.1507215602860365</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2433435892996907</v>
+        <v>0.2529292932939385</v>
       </c>
     </row>
     <row r="18">
@@ -1038,19 +1038,19 @@
         <v>56280</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>43336</v>
+        <v>43393</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>68780</v>
+        <v>71630</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.208247633147952</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1603535230004094</v>
+        <v>0.1605647024181009</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2545008320302428</v>
+        <v>0.2650479681459997</v>
       </c>
     </row>
     <row r="19">
@@ -1067,19 +1067,19 @@
         <v>57832</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45296</v>
+        <v>45619</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71965</v>
+        <v>72629</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2139926430757685</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1676056483269518</v>
+        <v>0.1688018427549556</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2662862640588475</v>
+        <v>0.2687435659278917</v>
       </c>
     </row>
     <row r="20">
@@ -1096,19 +1096,19 @@
         <v>44826</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33588</v>
+        <v>33820</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>58646</v>
+        <v>58077</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1658675306819486</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1242823542540999</v>
+        <v>0.1251411915693464</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.217001816476786</v>
+        <v>0.2148995502647555</v>
       </c>
     </row>
     <row r="21">
@@ -1158,19 +1158,19 @@
         <v>45200</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33822</v>
+        <v>34897</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>56789</v>
+        <v>57708</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2180625432915023</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.163170738598792</v>
+        <v>0.1683542557539146</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2739730825381003</v>
+        <v>0.2784027823295449</v>
       </c>
     </row>
     <row r="23">
@@ -1187,19 +1187,19 @@
         <v>36863</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>26532</v>
+        <v>27216</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>48295</v>
+        <v>48980</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1778420574349476</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1280010854378376</v>
+        <v>0.1313005973796184</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2329950264407814</v>
+        <v>0.2362996865374316</v>
       </c>
     </row>
     <row r="24">
@@ -1216,19 +1216,19 @@
         <v>45219</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>35152</v>
+        <v>34325</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>58772</v>
+        <v>57186</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2181520891880734</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1695875467799693</v>
+        <v>0.165595569978765</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2835355140388541</v>
+        <v>0.2758845849155954</v>
       </c>
     </row>
     <row r="25">
@@ -1245,19 +1245,19 @@
         <v>39197</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28617</v>
+        <v>28389</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50716</v>
+        <v>50853</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1891008475229689</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1380580864312153</v>
+        <v>0.1369566830270816</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2446730409089743</v>
+        <v>0.2453355322359315</v>
       </c>
     </row>
     <row r="26">
@@ -1274,19 +1274,19 @@
         <v>40802</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>29105</v>
+        <v>30737</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>53058</v>
+        <v>53979</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1968424625625077</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1404123782417785</v>
+        <v>0.148288879656892</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2559725818410678</v>
+        <v>0.2604128836614439</v>
       </c>
     </row>
     <row r="27">
@@ -1336,19 +1336,19 @@
         <v>38275</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>27611</v>
+        <v>28214</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>49481</v>
+        <v>49713</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2519029496268743</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1817189856956992</v>
+        <v>0.1856887390894838</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3256573049067226</v>
+        <v>0.327183793756989</v>
       </c>
     </row>
     <row r="29">
@@ -1365,19 +1365,19 @@
         <v>28148</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>19183</v>
+        <v>19795</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>38738</v>
+        <v>38041</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1852532222521723</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1262540483991232</v>
+        <v>0.1302810900723188</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2549550730705766</v>
+        <v>0.2503642917826465</v>
       </c>
     </row>
     <row r="30">
@@ -1394,19 +1394,19 @@
         <v>36482</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>26604</v>
+        <v>27130</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>47605</v>
+        <v>47039</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2401024740369721</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1750910200649773</v>
+        <v>0.178552289956658</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3133087914069111</v>
+        <v>0.3095838480678219</v>
       </c>
     </row>
     <row r="31">
@@ -1423,19 +1423,19 @@
         <v>30372</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>21132</v>
+        <v>21389</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>40794</v>
+        <v>40324</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1998947757751107</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1390778371730238</v>
+        <v>0.1407684821029417</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2684861432389993</v>
+        <v>0.2653888259163805</v>
       </c>
     </row>
     <row r="32">
@@ -1452,19 +1452,19 @@
         <v>18666</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>11589</v>
+        <v>11593</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>27817</v>
+        <v>27734</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1228465783088706</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07627001439612623</v>
+        <v>0.07630099525486465</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1830777466572245</v>
+        <v>0.182531717575827</v>
       </c>
     </row>
     <row r="33">
@@ -1514,19 +1514,19 @@
         <v>21528</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>14781</v>
+        <v>14334</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>30556</v>
+        <v>29588</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2099587939250761</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1441554042096223</v>
+        <v>0.1397953435691831</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2980072748548838</v>
+        <v>0.2885620845497915</v>
       </c>
     </row>
     <row r="35">
@@ -1543,19 +1543,19 @@
         <v>21491</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>14445</v>
+        <v>14597</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>29719</v>
+        <v>30510</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2096012441563574</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1408740041851091</v>
+        <v>0.1423624360973326</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2898403370381706</v>
+        <v>0.2975559632914022</v>
       </c>
     </row>
     <row r="36">
@@ -1572,19 +1572,19 @@
         <v>23767</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>16590</v>
+        <v>16853</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>32950</v>
+        <v>32209</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2317922360363137</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.161797285937851</v>
+        <v>0.1643653683886049</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3213493269814771</v>
+        <v>0.3141305315533873</v>
       </c>
     </row>
     <row r="37">
@@ -1601,19 +1601,19 @@
         <v>18230</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>12054</v>
+        <v>11702</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>26320</v>
+        <v>26309</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1777951855759142</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1175557214959032</v>
+        <v>0.1141287429421559</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2566916386675219</v>
+        <v>0.2565868999303977</v>
       </c>
     </row>
     <row r="38">
@@ -1630,19 +1630,19 @@
         <v>17518</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>11022</v>
+        <v>10813</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>24613</v>
+        <v>26487</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1708525403063387</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1074982232825611</v>
+        <v>0.1054525696522729</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.240047749093865</v>
+        <v>0.2583239300669402</v>
       </c>
     </row>
     <row r="39">
@@ -1692,19 +1692,19 @@
         <v>15802</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>9618</v>
+        <v>9078</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>23437</v>
+        <v>23508</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2696422522770895</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.164122610241126</v>
+        <v>0.1549096254662618</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3999105956293154</v>
+        <v>0.4011277559721391</v>
       </c>
     </row>
     <row r="41">
@@ -1721,19 +1721,19 @@
         <v>9514</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>4541</v>
+        <v>4597</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>16941</v>
+        <v>16494</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1623346243101765</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.07747735627677864</v>
+        <v>0.07844833559962487</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2890668092462643</v>
+        <v>0.2814509015896711</v>
       </c>
     </row>
     <row r="42">
@@ -1750,19 +1750,19 @@
         <v>13621</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>7778</v>
+        <v>7926</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>22306</v>
+        <v>21358</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2324280560790158</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1327226378285671</v>
+        <v>0.1352418301963733</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3806077723390103</v>
+        <v>0.3644449733948075</v>
       </c>
     </row>
     <row r="43">
@@ -1779,19 +1779,19 @@
         <v>12848</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>6899</v>
+        <v>7126</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>20484</v>
+        <v>20660</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2192232413432719</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1177125095817715</v>
+        <v>0.1215855355052313</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3495196194079547</v>
+        <v>0.3525222243288973</v>
       </c>
     </row>
     <row r="44">
@@ -1808,19 +1808,19 @@
         <v>6820</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2333</v>
+        <v>3334</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>12673</v>
+        <v>13532</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1163718259904463</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.03980522005210368</v>
+        <v>0.05689049101201461</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2162419315777378</v>
+        <v>0.2309042944969537</v>
       </c>
     </row>
     <row r="45">
@@ -1870,19 +1870,19 @@
         <v>243533</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>213059</v>
+        <v>218962</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>269907</v>
+        <v>272386</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2236057494378264</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1956260292164843</v>
+        <v>0.2010458575576597</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2478223654382526</v>
+        <v>0.2500977936017225</v>
       </c>
     </row>
     <row r="47">
@@ -1899,19 +1899,19 @@
         <v>204651</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>178701</v>
+        <v>178380</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>232849</v>
+        <v>229932</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.187905491912048</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1640791271294593</v>
+        <v>0.1637845663331707</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2137960253236673</v>
+        <v>0.2111176720255953</v>
       </c>
     </row>
     <row r="48">
@@ -1928,19 +1928,19 @@
         <v>252904</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>226864</v>
+        <v>225383</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>280524</v>
+        <v>280929</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2322107671915421</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2083012535456598</v>
+        <v>0.2069410734909823</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2575700178494156</v>
+        <v>0.2579424372001012</v>
       </c>
     </row>
     <row r="49">
@@ -1957,19 +1957,19 @@
         <v>213973</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>186089</v>
+        <v>189253</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>242049</v>
+        <v>241217</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1964644534671008</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1708620159824804</v>
+        <v>0.1737679702142075</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2222434497779749</v>
+        <v>0.2214795663153391</v>
       </c>
     </row>
     <row r="50">
@@ -1986,19 +1986,19 @@
         <v>174055</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>151254</v>
+        <v>150981</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>202901</v>
+        <v>198500</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1598135379914828</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1388779340566831</v>
+        <v>0.1386267893467761</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1862990693324026</v>
+        <v>0.1822578544695352</v>
       </c>
     </row>
     <row r="51">
@@ -2169,19 +2169,19 @@
         <v>17697</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10805</v>
+        <v>10914</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26486</v>
+        <v>26302</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07068748437540985</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04315741421703677</v>
+        <v>0.04359534061470883</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1057926651673378</v>
+        <v>0.1050586545597366</v>
       </c>
     </row>
     <row r="5">
@@ -2198,19 +2198,19 @@
         <v>13446</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7455</v>
+        <v>7142</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21657</v>
+        <v>21225</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05370925267958111</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02977837470182142</v>
+        <v>0.02852816858869067</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08650755769711858</v>
+        <v>0.08478064473939335</v>
       </c>
     </row>
     <row r="6">
@@ -2227,19 +2227,19 @@
         <v>74526</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>60830</v>
+        <v>61241</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>90621</v>
+        <v>89850</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2976838988307342</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2429760963279809</v>
+        <v>0.2446196322712975</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3619712362137233</v>
+        <v>0.3588924993239499</v>
       </c>
     </row>
     <row r="7">
@@ -2256,19 +2256,19 @@
         <v>71907</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>58397</v>
+        <v>57757</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>86225</v>
+        <v>87162</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.287222713749037</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2332604984847634</v>
+        <v>0.2307033625587003</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3444118502139508</v>
+        <v>0.348154782897848</v>
       </c>
     </row>
     <row r="8">
@@ -2285,19 +2285,19 @@
         <v>72777</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>58261</v>
+        <v>59089</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>87278</v>
+        <v>87521</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.290696650365238</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2327141373498917</v>
+        <v>0.2360236971647735</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3486189815345793</v>
+        <v>0.3495904678288436</v>
       </c>
     </row>
     <row r="9">
@@ -2347,19 +2347,19 @@
         <v>62995</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48143</v>
+        <v>49538</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>79426</v>
+        <v>80380</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1132431597482274</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08654335759503942</v>
+        <v>0.089051940394877</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1427795642308531</v>
+        <v>0.1444945878465405</v>
       </c>
     </row>
     <row r="11">
@@ -2376,19 +2376,19 @@
         <v>35138</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24906</v>
+        <v>24992</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>48828</v>
+        <v>50011</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06316531275887446</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0447724587231355</v>
+        <v>0.04492693124454773</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08777524324271375</v>
+        <v>0.08990230468860422</v>
       </c>
     </row>
     <row r="12">
@@ -2405,19 +2405,19 @@
         <v>179282</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>157016</v>
+        <v>156589</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>200399</v>
+        <v>202324</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3222845065504786</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2822591300215296</v>
+        <v>0.2814918278409316</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3602464943414356</v>
+        <v>0.3637055462742352</v>
       </c>
     </row>
     <row r="13">
@@ -2434,19 +2434,19 @@
         <v>135092</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>113624</v>
+        <v>114319</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>158769</v>
+        <v>156898</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2428477296026571</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2042557553807038</v>
+        <v>0.2055046691513616</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.285409156133094</v>
+        <v>0.282045757231308</v>
       </c>
     </row>
     <row r="14">
@@ -2463,19 +2463,19 @@
         <v>143777</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>122618</v>
+        <v>124133</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>166146</v>
+        <v>166824</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2584592913397624</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2204234592563962</v>
+        <v>0.2231473722076464</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2986718791878086</v>
+        <v>0.2998904224108179</v>
       </c>
     </row>
     <row r="15">
@@ -2525,19 +2525,19 @@
         <v>76147</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>60569</v>
+        <v>61762</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>92242</v>
+        <v>96433</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1094054058878803</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08702315347124133</v>
+        <v>0.08873826006009589</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1325300727269004</v>
+        <v>0.1385517053302225</v>
       </c>
     </row>
     <row r="17">
@@ -2554,19 +2554,19 @@
         <v>88960</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>71084</v>
+        <v>70487</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>106372</v>
+        <v>105574</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1278148321080883</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1021311496616423</v>
+        <v>0.101273013320914</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1528314915207099</v>
+        <v>0.1516857643440603</v>
       </c>
     </row>
     <row r="18">
@@ -2583,19 +2583,19 @@
         <v>229394</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>203489</v>
+        <v>202684</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>254550</v>
+        <v>254532</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3295856646911589</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2923669777145232</v>
+        <v>0.2912097080397479</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3657298882776087</v>
+        <v>0.3657032407894389</v>
       </c>
     </row>
     <row r="19">
@@ -2612,19 +2612,19 @@
         <v>168261</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>144563</v>
+        <v>144579</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>192335</v>
+        <v>192311</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2417528675042666</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2077034754178626</v>
+        <v>0.2077272195938918</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2763405297542325</v>
+        <v>0.2763064150015572</v>
       </c>
     </row>
     <row r="20">
@@ -2641,19 +2641,19 @@
         <v>133244</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>111444</v>
+        <v>113225</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>154675</v>
+        <v>157101</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.191441229808606</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1601189753386014</v>
+        <v>0.1626788022697871</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2222316962740368</v>
+        <v>0.2257172765246633</v>
       </c>
     </row>
     <row r="21">
@@ -2703,19 +2703,19 @@
         <v>45480</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33752</v>
+        <v>33616</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>59340</v>
+        <v>59808</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07787844879270736</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05779504190872153</v>
+        <v>0.05756185680234445</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1016108057627191</v>
+        <v>0.1024118318962708</v>
       </c>
     </row>
     <row r="23">
@@ -2732,19 +2732,19 @@
         <v>102902</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>83804</v>
+        <v>86127</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>123427</v>
+        <v>125325</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1762034026999894</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1435018752135079</v>
+        <v>0.1474792991656527</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2113493610481491</v>
+        <v>0.2146001093234144</v>
       </c>
     </row>
     <row r="24">
@@ -2761,19 +2761,19 @@
         <v>208561</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>185369</v>
+        <v>184127</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>235115</v>
+        <v>233641</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.357128608182922</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.317415847364355</v>
+        <v>0.3152890339954782</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4025994463300815</v>
+        <v>0.4000744199959471</v>
       </c>
     </row>
     <row r="25">
@@ -2790,19 +2790,19 @@
         <v>152530</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>130442</v>
+        <v>130834</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>174636</v>
+        <v>175295</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.261184743536358</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2233614491439024</v>
+        <v>0.2240332139606229</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2990372204284298</v>
+        <v>0.3001669632543812</v>
       </c>
     </row>
     <row r="26">
@@ -2819,19 +2819,19 @@
         <v>74520</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>58045</v>
+        <v>59138</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>91475</v>
+        <v>92553</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1276047967880233</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09939336705072753</v>
+        <v>0.1012645575065746</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1566367562383686</v>
+        <v>0.1584837885957592</v>
       </c>
     </row>
     <row r="27">
@@ -2881,19 +2881,19 @@
         <v>27202</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>17900</v>
+        <v>17759</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>39101</v>
+        <v>39075</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06471367266389705</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04258520110093125</v>
+        <v>0.04224893718728372</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09302154705304229</v>
+        <v>0.09295954975006751</v>
       </c>
     </row>
     <row r="29">
@@ -2910,19 +2910,19 @@
         <v>128707</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>110400</v>
+        <v>109604</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>149576</v>
+        <v>149867</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3061954878115103</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2626439482465864</v>
+        <v>0.2607500456069837</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3558427616813273</v>
+        <v>0.3565352309734324</v>
       </c>
     </row>
     <row r="30">
@@ -2939,19 +2939,19 @@
         <v>134487</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>116504</v>
+        <v>114556</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>155681</v>
+        <v>154620</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3199458490499016</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2771649000455446</v>
+        <v>0.2725313490520373</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3703681325414508</v>
+        <v>0.3678444948997132</v>
       </c>
     </row>
     <row r="31">
@@ -2968,19 +2968,19 @@
         <v>85101</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>67837</v>
+        <v>69180</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>101237</v>
+        <v>102240</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2024558533290019</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1613854313106076</v>
+        <v>0.164579966187615</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2408453515867063</v>
+        <v>0.2432312369601299</v>
       </c>
     </row>
     <row r="32">
@@ -2997,19 +2997,19 @@
         <v>44846</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>32962</v>
+        <v>31397</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>61155</v>
+        <v>59780</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1066891371456891</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07841763277922444</v>
+        <v>0.07469341309402766</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1454894193172503</v>
+        <v>0.1422170081653204</v>
       </c>
     </row>
     <row r="33">
@@ -3059,19 +3059,19 @@
         <v>37318</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>27043</v>
+        <v>27198</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>49870</v>
+        <v>50978</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1261508433348562</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.09141654371273307</v>
+        <v>0.09194042057611172</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1685832872040572</v>
+        <v>0.1723256029877622</v>
       </c>
     </row>
     <row r="35">
@@ -3088,19 +3088,19 @@
         <v>133870</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>117665</v>
+        <v>117022</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>151435</v>
+        <v>150466</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.4525368275181045</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3977563652449571</v>
+        <v>0.3955825002318268</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.5119147045800042</v>
+        <v>0.5086397336036416</v>
       </c>
     </row>
     <row r="36">
@@ -3117,19 +3117,19 @@
         <v>63886</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>50267</v>
+        <v>50664</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>77634</v>
+        <v>79370</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2159615386258443</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1699236493871166</v>
+        <v>0.1712670347617248</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2624362189804216</v>
+        <v>0.2683053630004592</v>
       </c>
     </row>
     <row r="37">
@@ -3146,19 +3146,19 @@
         <v>34840</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>24969</v>
+        <v>23917</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>46969</v>
+        <v>45161</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1177730063145844</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08440519996129392</v>
+        <v>0.08085099586441488</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1587750913004237</v>
+        <v>0.1526647938853167</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>25907</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>15907</v>
+        <v>16783</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>37187</v>
+        <v>38035</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.0875777842066106</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.05377181568572241</v>
+        <v>0.05673394335263616</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1257089153797244</v>
+        <v>0.1285749370350746</v>
       </c>
     </row>
     <row r="39">
@@ -3237,19 +3237,19 @@
         <v>63359</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>51163</v>
+        <v>48993</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>79447</v>
+        <v>77941</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2268003784776954</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1831455417708364</v>
+        <v>0.1753771659275162</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2843901163260059</v>
+        <v>0.2790000306199501</v>
       </c>
     </row>
     <row r="41">
@@ -3266,19 +3266,19 @@
         <v>173056</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>156676</v>
+        <v>156223</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>189209</v>
+        <v>190362</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.6194746415680396</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.5608422208939139</v>
+        <v>0.5592209069256592</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.6772980662044059</v>
+        <v>0.6814232394980225</v>
       </c>
     </row>
     <row r="42">
@@ -3295,19 +3295,19 @@
         <v>23808</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>15237</v>
+        <v>15086</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>33730</v>
+        <v>34353</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.0852246560318885</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.05454164870736028</v>
+        <v>0.0540008411470628</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1207412107067345</v>
+        <v>0.1229725378882478</v>
       </c>
     </row>
     <row r="43">
@@ -3324,19 +3324,19 @@
         <v>10375</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>5267</v>
+        <v>4790</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>19636</v>
+        <v>19116</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.0371394611395797</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01885355614149482</v>
+        <v>0.01714717481598764</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.07029045999743547</v>
+        <v>0.06842631005871048</v>
       </c>
     </row>
     <row r="44">
@@ -3353,19 +3353,19 @@
         <v>8761</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>4346</v>
+        <v>4354</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>16505</v>
+        <v>16548</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.03136086278279681</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01555662109255796</v>
+        <v>0.0155860955663967</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.05908016886066562</v>
+        <v>0.05923733922516434</v>
       </c>
     </row>
     <row r="45">
@@ -3415,19 +3415,19 @@
         <v>330198</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>297421</v>
+        <v>298027</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>362760</v>
+        <v>364463</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1071321161933864</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.09649761256214809</v>
+        <v>0.09669411142677206</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1176967057638618</v>
+        <v>0.1182491425858152</v>
       </c>
     </row>
     <row r="47">
@@ -3444,19 +3444,19 @@
         <v>676078</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>629624</v>
+        <v>628721</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>727636</v>
+        <v>726170</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2193521197678285</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2042801094111307</v>
+        <v>0.2039871978651028</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2360800321951792</v>
+        <v>0.2356042934197708</v>
       </c>
     </row>
     <row r="48">
@@ -3473,19 +3473,19 @@
         <v>913943</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>860959</v>
+        <v>860167</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>968451</v>
+        <v>962845</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2965269608970301</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.279336341955127</v>
+        <v>0.2790795618674173</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3142119309487671</v>
+        <v>0.3123931849250232</v>
       </c>
     </row>
     <row r="49">
@@ -3502,19 +3502,19 @@
         <v>658107</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>616310</v>
+        <v>614174</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>711632</v>
+        <v>708124</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2135213857618726</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.199960660168763</v>
+        <v>0.1992676125309082</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2308874645802152</v>
+        <v>0.2297492635114562</v>
       </c>
     </row>
     <row r="50">
@@ -3531,19 +3531,19 @@
         <v>503832</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>459399</v>
+        <v>457238</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>546745</v>
+        <v>546355</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1634674173798825</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1490511700581091</v>
+        <v>0.1483497936600063</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1773903860912801</v>
+        <v>0.1772636565736027</v>
       </c>
     </row>
     <row r="51">
@@ -3714,19 +3714,19 @@
         <v>11871</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5788</v>
+        <v>6332</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20071</v>
+        <v>20899</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05091389007682126</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02482594281332741</v>
+        <v>0.02715870737483445</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08608090764324119</v>
+        <v>0.08963310654255235</v>
       </c>
     </row>
     <row r="5">
@@ -3743,19 +3743,19 @@
         <v>12958</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7047</v>
+        <v>6924</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21819</v>
+        <v>21904</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05557660922034417</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03022266278601785</v>
+        <v>0.02969814335466225</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09357778088927471</v>
+        <v>0.09394360180242378</v>
       </c>
     </row>
     <row r="6">
@@ -3772,19 +3772,19 @@
         <v>88653</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>74445</v>
+        <v>73490</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>103366</v>
+        <v>103442</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.380220851507374</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3192858773890956</v>
+        <v>0.3151900568376561</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4433251008680411</v>
+        <v>0.4436484388943285</v>
       </c>
     </row>
     <row r="7">
@@ -3801,19 +3801,19 @@
         <v>62544</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48846</v>
+        <v>49118</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>75784</v>
+        <v>76674</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2682436616894279</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2094952666586701</v>
+        <v>0.2106604524476129</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3250276770344633</v>
+        <v>0.3288467068487959</v>
       </c>
     </row>
     <row r="8">
@@ -3830,19 +3830,19 @@
         <v>57135</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45583</v>
+        <v>44758</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>71328</v>
+        <v>71654</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2450449875060327</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1954986569664409</v>
+        <v>0.1919639038159911</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.305917732418008</v>
+        <v>0.3073163645863404</v>
       </c>
     </row>
     <row r="9">
@@ -3892,19 +3892,19 @@
         <v>31822</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22865</v>
+        <v>22679</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44402</v>
+        <v>42962</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06387565966552167</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04589657337606068</v>
+        <v>0.04552269071484655</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08912810416411467</v>
+        <v>0.08623712524274148</v>
       </c>
     </row>
     <row r="11">
@@ -3921,19 +3921,19 @@
         <v>48189</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>36257</v>
+        <v>36663</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>62767</v>
+        <v>61276</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09672849570957807</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07277875017184043</v>
+        <v>0.07359359615189523</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1259908240654293</v>
+        <v>0.1229984159621623</v>
       </c>
     </row>
     <row r="12">
@@ -3950,19 +3950,19 @@
         <v>202203</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>181200</v>
+        <v>180871</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>226089</v>
+        <v>223369</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4058789827777752</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3637189607616292</v>
+        <v>0.3630591915090042</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4538241263613406</v>
+        <v>0.448363849602983</v>
       </c>
     </row>
     <row r="13">
@@ -3979,19 +3979,19 @@
         <v>128539</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>109482</v>
+        <v>108723</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>147098</v>
+        <v>147230</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2580147085352333</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2197604572869248</v>
+        <v>0.2182373433509526</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2952672096870725</v>
+        <v>0.2955312385466439</v>
       </c>
     </row>
     <row r="14">
@@ -4008,19 +4008,19 @@
         <v>87433</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>71915</v>
+        <v>72953</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>104478</v>
+        <v>104992</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1755021533118917</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1443544135162286</v>
+        <v>0.1464380107702654</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2097162235527315</v>
+        <v>0.2107484718501183</v>
       </c>
     </row>
     <row r="15">
@@ -4070,19 +4070,19 @@
         <v>29307</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20419</v>
+        <v>20114</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41182</v>
+        <v>41806</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04720703777618575</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03289000100951022</v>
+        <v>0.03239963554656618</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06633557478220146</v>
+        <v>0.06733971677093534</v>
       </c>
     </row>
     <row r="17">
@@ -4099,19 +4099,19 @@
         <v>85739</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>69702</v>
+        <v>68601</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>104856</v>
+        <v>103237</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1381058419174227</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1122743183454608</v>
+        <v>0.1105007809033589</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1689005241246555</v>
+        <v>0.1662923044493845</v>
       </c>
     </row>
     <row r="18">
@@ -4128,19 +4128,19 @@
         <v>254374</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>231526</v>
+        <v>231803</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>278677</v>
+        <v>277606</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4097397059441311</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3729369000828399</v>
+        <v>0.3733837467338675</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4488866637166883</v>
+        <v>0.4471611793865986</v>
       </c>
     </row>
     <row r="19">
@@ -4157,19 +4157,19 @@
         <v>134913</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>114559</v>
+        <v>115569</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>155947</v>
+        <v>155935</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2173141503328975</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1845293278558449</v>
+        <v>0.1861562205274053</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2511962527515393</v>
+        <v>0.2511765680584502</v>
       </c>
     </row>
     <row r="20">
@@ -4186,19 +4186,19 @@
         <v>116486</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>96595</v>
+        <v>97750</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>134927</v>
+        <v>137803</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.187633264029363</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1555933126715338</v>
+        <v>0.1574528722186787</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2173373367980037</v>
+        <v>0.2219706763176106</v>
       </c>
     </row>
     <row r="21">
@@ -4248,19 +4248,19 @@
         <v>33859</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23703</v>
+        <v>23659</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47285</v>
+        <v>46920</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05530054983549557</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0387126160284568</v>
+        <v>0.03864093338453019</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07722922263230053</v>
+        <v>0.07663311753772412</v>
       </c>
     </row>
     <row r="23">
@@ -4277,19 +4277,19 @@
         <v>124873</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>105159</v>
+        <v>105447</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>146796</v>
+        <v>144449</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2039504118287511</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1717529490983258</v>
+        <v>0.1722233728160152</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2397568631105083</v>
+        <v>0.2359230368731584</v>
       </c>
     </row>
     <row r="24">
@@ -4306,19 +4306,19 @@
         <v>262649</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>236967</v>
+        <v>234468</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>285473</v>
+        <v>288044</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4289763203815428</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3870299982767533</v>
+        <v>0.382949058069964</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4662537605953359</v>
+        <v>0.4704528293548321</v>
       </c>
     </row>
     <row r="25">
@@ -4335,19 +4335,19 @@
         <v>123328</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>104143</v>
+        <v>104724</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>143024</v>
+        <v>147912</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2014277180702194</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1700939727931961</v>
+        <v>0.1710420689972934</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2335955664533147</v>
+        <v>0.2415794709184723</v>
       </c>
     </row>
     <row r="26">
@@ -4364,19 +4364,19 @@
         <v>67561</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>53190</v>
+        <v>52946</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>85833</v>
+        <v>84880</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1103449998839911</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08687276245987653</v>
+        <v>0.08647545320102332</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1401878525366256</v>
+        <v>0.1386315119892309</v>
       </c>
     </row>
     <row r="27">
@@ -4426,19 +4426,19 @@
         <v>24587</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>15793</v>
+        <v>14957</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>35293</v>
+        <v>36839</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05328967123739357</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03422961562654827</v>
+        <v>0.03241624705547871</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0764926397464348</v>
+        <v>0.07984378749574646</v>
       </c>
     </row>
     <row r="29">
@@ -4455,19 +4455,19 @@
         <v>143026</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>121125</v>
+        <v>122888</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>161785</v>
+        <v>164815</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3099895241923916</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2625222746205522</v>
+        <v>0.2663423409266873</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3506459243107561</v>
+        <v>0.3572123281199033</v>
       </c>
     </row>
     <row r="30">
@@ -4484,19 +4484,19 @@
         <v>178367</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>156826</v>
+        <v>156324</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>199566</v>
+        <v>201134</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3865857764278867</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3398986744077724</v>
+        <v>0.3388103100219745</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4325311894002558</v>
+        <v>0.4359285459313889</v>
       </c>
     </row>
     <row r="31">
@@ -4513,19 +4513,19 @@
         <v>73685</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>58320</v>
+        <v>55751</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>91157</v>
+        <v>90445</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1597011368447392</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1264004965379672</v>
+        <v>0.1208321879536105</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1975703343331842</v>
+        <v>0.196025898829798</v>
       </c>
     </row>
     <row r="32">
@@ -4542,19 +4542,19 @@
         <v>41725</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>30059</v>
+        <v>29715</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>55955</v>
+        <v>55961</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.09043389129758889</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06514822310698813</v>
+        <v>0.0644030576383456</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1212750352300919</v>
+        <v>0.1212881068520997</v>
       </c>
     </row>
     <row r="33">
@@ -4604,19 +4604,19 @@
         <v>43654</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>32695</v>
+        <v>32932</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>57129</v>
+        <v>58465</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1327758834141664</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.09944363710181316</v>
+        <v>0.1001638726448247</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1737629312090919</v>
+        <v>0.1778257896631872</v>
       </c>
     </row>
     <row r="35">
@@ -4633,19 +4633,19 @@
         <v>154153</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>136186</v>
+        <v>134656</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>173010</v>
+        <v>172349</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.4688671782018929</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4142198956225516</v>
+        <v>0.4095667632102045</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.5262242149594094</v>
+        <v>0.524213030485548</v>
       </c>
     </row>
     <row r="36">
@@ -4662,19 +4662,19 @@
         <v>85978</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>70640</v>
+        <v>71874</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>102025</v>
+        <v>103515</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.261509678434309</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2148576505962182</v>
+        <v>0.2186108900739202</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3103170530842713</v>
+        <v>0.3148500755753489</v>
       </c>
     </row>
     <row r="37">
@@ -4691,19 +4691,19 @@
         <v>27475</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>18422</v>
+        <v>18553</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>39396</v>
+        <v>38119</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.08356808458027923</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05603262890111006</v>
+        <v>0.05643162432158667</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.119826039501267</v>
+        <v>0.1159426320359388</v>
       </c>
     </row>
     <row r="38">
@@ -4720,19 +4720,19 @@
         <v>17517</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>10740</v>
+        <v>10081</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>27944</v>
+        <v>27544</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.05327917536935243</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03266520659645778</v>
+        <v>0.03066186983433338</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.08499311341871255</v>
+        <v>0.08377848841373964</v>
       </c>
     </row>
     <row r="39">
@@ -4782,19 +4782,19 @@
         <v>76802</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>60654</v>
+        <v>60494</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>94433</v>
+        <v>95077</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2502220198860665</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1976115652255288</v>
+        <v>0.1970906554215789</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3076646105511848</v>
+        <v>0.3097624476212871</v>
       </c>
     </row>
     <row r="41">
@@ -4811,19 +4811,19 @@
         <v>176549</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>157098</v>
+        <v>155665</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>195821</v>
+        <v>196294</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.5752018363884118</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.5118290178358267</v>
+        <v>0.5071625439729196</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.6379891695554857</v>
+        <v>0.6395308237395404</v>
       </c>
     </row>
     <row r="42">
@@ -4840,19 +4840,19 @@
         <v>34467</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>22507</v>
+        <v>23971</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>50638</v>
+        <v>52038</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1122948610882783</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.07332955716727586</v>
+        <v>0.07809682297307573</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1649792841646978</v>
+        <v>0.1695429475288632</v>
       </c>
     </row>
     <row r="43">
@@ -4869,19 +4869,19 @@
         <v>13192</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>6176</v>
+        <v>6079</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>23989</v>
+        <v>25687</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.04297887121717752</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02012207250534037</v>
+        <v>0.01980596729756681</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.07815577683842334</v>
+        <v>0.08368953784593278</v>
       </c>
     </row>
     <row r="44">
@@ -4898,19 +4898,19 @@
         <v>5925</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2339</v>
+        <v>2313</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>13200</v>
+        <v>13079</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01930241142006589</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.007621636436240179</v>
+        <v>0.007534752805769543</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.04300516888923254</v>
+        <v>0.04261231873903443</v>
       </c>
     </row>
     <row r="45">
@@ -4960,19 +4960,19 @@
         <v>251902</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>222447</v>
+        <v>218569</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>285118</v>
+        <v>281318</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.08227946747956678</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.07265869987971119</v>
+        <v>0.07139183590683056</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.09312887829273776</v>
+        <v>0.09188769782663807</v>
       </c>
     </row>
     <row r="47">
@@ -4989,19 +4989,19 @@
         <v>745487</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>699674</v>
+        <v>697684</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>799706</v>
+        <v>796430</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2435007801341333</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2285368438813383</v>
+        <v>0.227886955409819</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2612107608017628</v>
+        <v>0.2601404947780203</v>
       </c>
     </row>
     <row r="48">
@@ -5018,19 +5018,19 @@
         <v>1106692</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1052178</v>
+        <v>1053070</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1158685</v>
+        <v>1161394</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3614823686558609</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3436762773314881</v>
+        <v>0.3439678908292254</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3784651375663259</v>
+        <v>0.3793499211062945</v>
       </c>
     </row>
     <row r="49">
@@ -5047,19 +5047,19 @@
         <v>563676</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>519469</v>
+        <v>524392</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>609130</v>
+        <v>608549</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1841152038946165</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1696757910370633</v>
+        <v>0.1712839991743548</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1989621420737963</v>
+        <v>0.1987724251272373</v>
       </c>
     </row>
     <row r="50">
@@ -5076,19 +5076,19 @@
         <v>393782</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>356478</v>
+        <v>360078</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>429906</v>
+        <v>433966</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1286221798358224</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1164377490517321</v>
+        <v>0.1176135936108796</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.140421570610855</v>
+        <v>0.1417479016224981</v>
       </c>
     </row>
     <row r="51">
@@ -5259,19 +5259,19 @@
         <v>8231</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3040</v>
+        <v>3526</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17446</v>
+        <v>16189</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0712227591972366</v>
+        <v>0.07122275919723661</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02630311717683197</v>
+        <v>0.03050993970735229</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1509548334841544</v>
+        <v>0.1400724816149958</v>
       </c>
     </row>
     <row r="5">
@@ -5288,19 +5288,19 @@
         <v>16428</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7033</v>
+        <v>7777</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30703</v>
+        <v>33098</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1421452350305633</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06085283591438237</v>
+        <v>0.06728982627786861</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.265658839507323</v>
+        <v>0.2863784428985025</v>
       </c>
     </row>
     <row r="6">
@@ -5317,19 +5317,19 @@
         <v>33832</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22094</v>
+        <v>21562</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>47899</v>
+        <v>48107</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2927351215983124</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1911667233992257</v>
+        <v>0.1865700674415504</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4144462663033083</v>
+        <v>0.4162502067234805</v>
       </c>
     </row>
     <row r="7">
@@ -5346,19 +5346,19 @@
         <v>31231</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20117</v>
+        <v>19200</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45433</v>
+        <v>46126</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2702268818627598</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1740662394216425</v>
+        <v>0.1661258519139026</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3931128359192608</v>
+        <v>0.3991061108603418</v>
       </c>
     </row>
     <row r="8">
@@ -5375,19 +5375,19 @@
         <v>25850</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>15492</v>
+        <v>14566</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>39737</v>
+        <v>38855</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2236700023111278</v>
+        <v>0.2236700023111279</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.134041090269667</v>
+        <v>0.1260316943612166</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3438220039009949</v>
+        <v>0.3361978822319468</v>
       </c>
     </row>
     <row r="9">
@@ -5437,19 +5437,19 @@
         <v>45301</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33726</v>
+        <v>34326</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61002</v>
+        <v>59628</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1573708895108123</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.117161026223645</v>
+        <v>0.1192450289729826</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2119141234561309</v>
+        <v>0.2071422658028426</v>
       </c>
     </row>
     <row r="11">
@@ -5466,19 +5466,19 @@
         <v>36620</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>25041</v>
+        <v>26052</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>49483</v>
+        <v>50722</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1272162592778173</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08699171216627412</v>
+        <v>0.09050385297324094</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1718989712485648</v>
+        <v>0.176204378696712</v>
       </c>
     </row>
     <row r="12">
@@ -5495,19 +5495,19 @@
         <v>98786</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>82504</v>
+        <v>82027</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>115684</v>
+        <v>116049</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3431753185494547</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.286610873236219</v>
+        <v>0.2849531425867471</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4018756844199404</v>
+        <v>0.4031449605245463</v>
       </c>
     </row>
     <row r="13">
@@ -5524,19 +5524,19 @@
         <v>51238</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38213</v>
+        <v>38594</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>65675</v>
+        <v>66179</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1779957292535431</v>
+        <v>0.1779957292535432</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1327488663609172</v>
+        <v>0.1340703971351448</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2281494850588518</v>
+        <v>0.2298993966941822</v>
       </c>
     </row>
     <row r="14">
@@ -5553,19 +5553,19 @@
         <v>55914</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>42457</v>
+        <v>43212</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>71450</v>
+        <v>71354</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1942418034083724</v>
+        <v>0.1942418034083725</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1474927985736605</v>
+        <v>0.1501160357394506</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2482125601613417</v>
+        <v>0.2478786657975646</v>
       </c>
     </row>
     <row r="15">
@@ -5615,19 +5615,19 @@
         <v>36486</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26848</v>
+        <v>27590</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47249</v>
+        <v>46599</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.09537983863798795</v>
+        <v>0.09537983863798793</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07018413448852459</v>
+        <v>0.07212374408272652</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1235145391648797</v>
+        <v>0.1218157596452591</v>
       </c>
     </row>
     <row r="17">
@@ -5644,19 +5644,19 @@
         <v>76925</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>63758</v>
+        <v>62964</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>90427</v>
+        <v>91248</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2010928183293935</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1666706807728477</v>
+        <v>0.1645949281227014</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2363867634397446</v>
+        <v>0.2385346637517833</v>
       </c>
     </row>
     <row r="18">
@@ -5673,19 +5673,19 @@
         <v>123180</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>108061</v>
+        <v>108935</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>138952</v>
+        <v>139006</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3220069416254996</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2824842310204772</v>
+        <v>0.2847697770982341</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.363237925939303</v>
+        <v>0.3633785258877932</v>
       </c>
     </row>
     <row r="19">
@@ -5702,19 +5702,19 @@
         <v>82879</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>70751</v>
+        <v>69017</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>97620</v>
+        <v>96250</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2166569628815092</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1849532607601668</v>
+        <v>0.1804183799865285</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2551919670747139</v>
+        <v>0.2516101345085834</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>63066</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>49934</v>
+        <v>51887</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>74890</v>
+        <v>75676</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1648634385256099</v>
+        <v>0.1648634385256098</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1305336418213767</v>
+        <v>0.1356393295178282</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1957713228873046</v>
+        <v>0.1978255478746587</v>
       </c>
     </row>
     <row r="21">
@@ -5793,19 +5793,19 @@
         <v>33295</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25890</v>
+        <v>25534</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42738</v>
+        <v>43203</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06864268822303092</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05337652162246772</v>
+        <v>0.05264163267402636</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08811172853655726</v>
+        <v>0.08906899110258515</v>
       </c>
     </row>
     <row r="23">
@@ -5822,19 +5822,19 @@
         <v>97283</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>84223</v>
+        <v>83469</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>111888</v>
+        <v>111504</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2005642896372291</v>
+        <v>0.2005642896372292</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1736389164318222</v>
+        <v>0.1720833356969708</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.23067522077042</v>
+        <v>0.2298822817829986</v>
       </c>
     </row>
     <row r="24">
@@ -5851,19 +5851,19 @@
         <v>153205</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>136808</v>
+        <v>136992</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>168455</v>
+        <v>170093</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3158557753728186</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2820510938011315</v>
+        <v>0.2824312313260964</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.347296144965436</v>
+        <v>0.3506724830190514</v>
       </c>
     </row>
     <row r="25">
@@ -5880,19 +5880,19 @@
         <v>126131</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>111182</v>
+        <v>110543</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>140489</v>
+        <v>143740</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2600378269597342</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2292191462003539</v>
+        <v>0.227902420540242</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.289639396602928</v>
+        <v>0.2963428411817638</v>
       </c>
     </row>
     <row r="26">
@@ -5909,19 +5909,19 @@
         <v>75133</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>63214</v>
+        <v>63691</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>88948</v>
+        <v>88484</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.154899419807187</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1303249595638485</v>
+        <v>0.1313082324309346</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1833806732425671</v>
+        <v>0.182423039848095</v>
       </c>
     </row>
     <row r="27">
@@ -5971,19 +5971,19 @@
         <v>17483</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>11636</v>
+        <v>11489</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>24739</v>
+        <v>25590</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.04204710667526373</v>
+        <v>0.04204710667526375</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02798372834890436</v>
+        <v>0.0276312358172138</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05949698895198521</v>
+        <v>0.06154349932444356</v>
       </c>
     </row>
     <row r="29">
@@ -6000,19 +6000,19 @@
         <v>125702</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>111793</v>
+        <v>111196</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>140855</v>
+        <v>139164</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3023099260487406</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2688588457394621</v>
+        <v>0.2674229150914961</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3387514288331399</v>
+        <v>0.3346839873012021</v>
       </c>
     </row>
     <row r="30">
@@ -6029,19 +6029,19 @@
         <v>127322</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>112790</v>
+        <v>113874</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>142391</v>
+        <v>141044</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3062045102288929</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2712567996228853</v>
+        <v>0.2738641072457489</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3424465760808212</v>
+        <v>0.3392073281119943</v>
       </c>
     </row>
     <row r="31">
@@ -6058,19 +6058,19 @@
         <v>96595</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>83465</v>
+        <v>84478</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>109675</v>
+        <v>110175</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2323072676739698</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2007303821818817</v>
+        <v>0.2031669282868452</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2637644125519681</v>
+        <v>0.264968446647924</v>
       </c>
     </row>
     <row r="32">
@@ -6087,19 +6087,19 @@
         <v>48704</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>38878</v>
+        <v>39353</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>60153</v>
+        <v>59709</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1171311893731328</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09350077379367731</v>
+        <v>0.09464387798745091</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1446656190077893</v>
+        <v>0.1435980061980247</v>
       </c>
     </row>
     <row r="33">
@@ -6149,19 +6149,19 @@
         <v>22456</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>16244</v>
+        <v>16227</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>30193</v>
+        <v>30411</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.07042166851000255</v>
+        <v>0.07042166851000253</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05094248138925275</v>
+        <v>0.05088799065237549</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.09468439678173228</v>
+        <v>0.09536825823816038</v>
       </c>
     </row>
     <row r="35">
@@ -6178,19 +6178,19 @@
         <v>150278</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>136631</v>
+        <v>137187</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>163564</v>
+        <v>161860</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.4712688934094503</v>
+        <v>0.4712688934094502</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4284722218915429</v>
+        <v>0.4302168708526218</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.5129351235608467</v>
+        <v>0.5075895967472951</v>
       </c>
     </row>
     <row r="36">
@@ -6207,19 +6207,19 @@
         <v>82851</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>71724</v>
+        <v>72178</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>94330</v>
+        <v>95513</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.2598183951135701</v>
+        <v>0.25981839511357</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2249243699679982</v>
+        <v>0.2263492029418058</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2958181476131881</v>
+        <v>0.2995262406554751</v>
       </c>
     </row>
     <row r="37">
@@ -6236,19 +6236,19 @@
         <v>42695</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>34537</v>
+        <v>34231</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>52528</v>
+        <v>51212</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1338904453927232</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1083080708894803</v>
+        <v>0.1073492027925903</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.16472765602688</v>
+        <v>0.1605998777443589</v>
       </c>
     </row>
     <row r="38">
@@ -6265,19 +6265,19 @@
         <v>20600</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>14819</v>
+        <v>14698</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>27746</v>
+        <v>27467</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.06460059757425393</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.04647121734570073</v>
+        <v>0.04609181467695938</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.08701211027565608</v>
+        <v>0.08613541685221522</v>
       </c>
     </row>
     <row r="39">
@@ -6327,19 +6327,19 @@
         <v>56904</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>47532</v>
+        <v>47427</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>67654</v>
+        <v>66869</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1733775559372357</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.144820068882649</v>
+        <v>0.1445009764099346</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.20612945922979</v>
+        <v>0.2037368875862287</v>
       </c>
     </row>
     <row r="41">
@@ -6356,19 +6356,19 @@
         <v>231984</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>219470</v>
+        <v>219275</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>244654</v>
+        <v>244293</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.7068141604922121</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.6686855803053672</v>
+        <v>0.6680901608490071</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.7454180394989793</v>
+        <v>0.7443179245288685</v>
       </c>
     </row>
     <row r="42">
@@ -6385,19 +6385,19 @@
         <v>22830</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>16848</v>
+        <v>17050</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>31366</v>
+        <v>29960</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.06955792103076963</v>
+        <v>0.06955792103076962</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.05133392472680061</v>
+        <v>0.05194835642439274</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.09556512463428654</v>
+        <v>0.09128242498190876</v>
       </c>
     </row>
     <row r="43">
@@ -6414,19 +6414,19 @@
         <v>13750</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>9012</v>
+        <v>8468</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>21917</v>
+        <v>21882</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.04189249286515428</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02745733700195374</v>
+        <v>0.02580027973523896</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.06677740119958986</v>
+        <v>0.06667147987590666</v>
       </c>
     </row>
     <row r="44">
@@ -6443,19 +6443,19 @@
         <v>2743</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>891</v>
+        <v>1018</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>6107</v>
+        <v>5982</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.008357869674628255</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.002716065173421084</v>
+        <v>0.003103167420186759</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01860808624644332</v>
+        <v>0.01822672920366909</v>
       </c>
     </row>
     <row r="45">
@@ -6505,19 +6505,19 @@
         <v>220157</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>197659</v>
+        <v>196523</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>247337</v>
+        <v>247394</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.0943296855266658</v>
+        <v>0.09432968552666579</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.08468990126222016</v>
+        <v>0.0842033166682067</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1059751332744925</v>
+        <v>0.1059996150624868</v>
       </c>
     </row>
     <row r="47">
@@ -6534,19 +6534,19 @@
         <v>735222</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>699977</v>
+        <v>699813</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>772026</v>
+        <v>772572</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3150167358046325</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2999155552650362</v>
+        <v>0.2998453584015212</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3307862497189725</v>
+        <v>0.331019921702254</v>
       </c>
     </row>
     <row r="48">
@@ -6563,19 +6563,19 @@
         <v>642005</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>607301</v>
+        <v>601823</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>678465</v>
+        <v>677065</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2750767011262019</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2602070593647915</v>
+        <v>0.2578598864355015</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2906986625387818</v>
+        <v>0.2900988196474337</v>
       </c>
     </row>
     <row r="49">
@@ -6592,19 +6592,19 @@
         <v>444518</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>414214</v>
+        <v>414078</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>477017</v>
+        <v>478429</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.1904603119254628</v>
+        <v>0.1904603119254627</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1774760491180288</v>
+        <v>0.1774178548888052</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2043852762083815</v>
+        <v>0.2049900011774123</v>
       </c>
     </row>
     <row r="50">
@@ -6621,19 +6621,19 @@
         <v>292011</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>266783</v>
+        <v>264903</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>321140</v>
+        <v>322947</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.125116565617037</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.114307298913412</v>
+        <v>0.1135017928199125</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1375971859602055</v>
+        <v>0.1383713095034413</v>
       </c>
     </row>
     <row r="51">
